--- a/biology/Médecine/Centre_clinique_et_hospitalier_de_Zvezdara/Centre_clinique_et_hospitalier_de_Zvezdara.xlsx
+++ b/biology/Médecine/Centre_clinique_et_hospitalier_de_Zvezdara/Centre_clinique_et_hospitalier_de_Zvezdara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre clinique et hospitalier de Zvezdara (en serbe cyrillique : Клиничко-болнички центар Звездара ; en serbe latin : Kliničko-bolnički centar Zvezdara ; en abrégé : KBC Zvezdara) est un hôpital public situé à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Zvezdara. Son origine remonte à 1935[1].
+Le centre clinique et hospitalier de Zvezdara (en serbe cyrillique : Клиничко-болнички центар Звездара ; en serbe latin : Kliničko-bolnički centar Zvezdara ; en abrégé : KBC Zvezdara) est un hôpital public situé à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Zvezdara. Son origine remonte à 1935.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de Zvezdara a été officiellement créé le 1er décembre 1935 grâce à la fondation du riche marchand et philanthrope belgradois Nikola Spasić (1838-1916) ; à l'origine doté de 100 lits, il a été le premier établissement de soin du quartier alors connu sous le nom de « Bulboder »[1].
-En 1963, la fondation anglaise Sue Ryder a offert à l'hôpital trois pavillons consacrés à la gériatrie, offrant une capacité d'accueil de 123 lits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Zvezdara a été officiellement créé le 1er décembre 1935 grâce à la fondation du riche marchand et philanthrope belgradois Nikola Spasić (1838-1916) ; à l'origine doté de 100 lits, il a été le premier établissement de soin du quartier alors connu sous le nom de « Bulboder ».
+En 1963, la fondation anglaise Sue Ryder a offert à l'hôpital trois pavillons consacrés à la gériatrie, offrant une capacité d'accueil de 123 lits.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est divisé en plusieurs services : gynécologie, chirurgie, médecine interne, laboratoires, services médicaux, neurologie, ophtalmologie, oto-rhino-laryngologie, pédiatrie, psychiatrie, radiologie et médecine d'urgence[2].
-Certains de ces services sont subdivisés. Le service de chirurgie est constitué d'un département de chirurgie générale et d'un département d'urologie[3]. Le service de médecine interne compte 9 départements : endocrinologie, diabète et troubles du métabolisme, gériatrie, centre de la migraine, maladies rénales et troubles du métabolisme avec dialyse, gastro-entérologie et hépatologie, pneumologie, allergologie et immunologie, hématologie et oncologie, dermato-vénérologie et maladies cardio-vasculaires[4].
-Parmi les « services » médicaux de l'hôpital figurent un centre de médecine physique et de réadaptation, un département de fournitures médicales avec un centre de transfusion sanguine et un département de pathologie[5].
-Le service de pédiatrie est installé dans l'hôpital pour enfants Olga Popović-Dedijer, situé 13 rue Mije Kovačevića[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est divisé en plusieurs services : gynécologie, chirurgie, médecine interne, laboratoires, services médicaux, neurologie, ophtalmologie, oto-rhino-laryngologie, pédiatrie, psychiatrie, radiologie et médecine d'urgence.
+Certains de ces services sont subdivisés. Le service de chirurgie est constitué d'un département de chirurgie générale et d'un département d'urologie. Le service de médecine interne compte 9 départements : endocrinologie, diabète et troubles du métabolisme, gériatrie, centre de la migraine, maladies rénales et troubles du métabolisme avec dialyse, gastro-entérologie et hépatologie, pneumologie, allergologie et immunologie, hématologie et oncologie, dermato-vénérologie et maladies cardio-vasculaires.
+Parmi les « services » médicaux de l'hôpital figurent un centre de médecine physique et de réadaptation, un département de fournitures médicales avec un centre de transfusion sanguine et un département de pathologie.
+Le service de pédiatrie est installé dans l'hôpital pour enfants Olga Popović-Dedijer, situé 13 rue Mije Kovačevića.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est accessible par les lignes de bus 77 (Zvezdara – Hôpital de Bežanijska kosa) et 79 (Dorćol – Mirijevo IV) ainsi que par les lignes de trolleybus 28 (Studentski trg – Zvezdara) et 40 (Zvezdara – Banjica II) de la société GSP Beograd[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est accessible par les lignes de bus 77 (Zvezdara – Hôpital de Bežanijska kosa) et 79 (Dorćol – Mirijevo IV) ainsi que par les lignes de trolleybus 28 (Studentski trg – Zvezdara) et 40 (Zvezdara – Banjica II) de la société GSP Beograd.
 </t>
         </is>
       </c>
